--- a/biology/Botanique/Riverside_Park_(Manhattan)/Riverside_Park_(Manhattan).xlsx
+++ b/biology/Botanique/Riverside_Park_(Manhattan)/Riverside_Park_(Manhattan).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Riverside Park est un parc situé au nord-ouest de l'arrondissement de Manhattan, à New York. C’est une étroite bande de verdure (100 à 200 m de largeur pour environ 6 km de longueur) coincée entre le fleuve Hudson et la Riverside Drive, le boulevard qui relie le quartier du Upper West Side à Morningside Heights, Harlem et Washington Heights. À sa création, le parc n’allait pas jusqu’à la rive, occupée par la voie de chemin de fer des compagnies New York Central RR et Hudson Line. Celle-ci fut ensuite recouverte par une esplanade.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction du parc commença au début des années 1870, sur les plans de Frederick Law Olmsted, également concepteur de Central Park. La première étape des travaux fut terminée en 1910, mais il y eut d’autres aménagements ultérieurs. Pourtant, le parc fut pendant un temps laissé à l’abandon, et le jeune Robert Moses le décrivait comme une « masse sale et boueuse », polluée par l’épaisse fumée des trains apportant le bétail vers les abattoirs de Manhattan. Sous son administration, entre 1937 et 1941, on y a effectué des travaux d’embellissement, puis le parc a été rénové dans les années 1980.
 Riverside Park est divisé en 2 parties : la première s’étend de la 72e rue à la 125e, au bord de l’Hudson, et la deuxième de la 145e à la 158e rue, à côté de Riverbank State Park. Les allées bordant la rive sont reliées à celles de l’Hudson River Park au sud et à celles du Fort Washington Park au nord.
